--- a/Social Scoreboard file2 TEMPLATE.xlsx
+++ b/Social Scoreboard file2 TEMPLATE.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eceuropaeu-my.sharepoint.com/personal/aleksander_rutkowski_ec_europa_eu/Documents/Social_Scoreboard_in_R/FRESH NEW APPROACH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{7128C677-212D-4655-9CBF-C09FDF68E5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E73F3D4-96A8-47E5-B639-F6DF3FA59AA5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F74057F-CE83-4EE9-990C-6C161EFD7733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="31063" windowHeight="20177" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="21549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -39,9 +26,6 @@
   </si>
   <si>
     <t>Better than average</t>
-  </si>
-  <si>
-    <t>Good but deteriorating</t>
   </si>
   <si>
     <t>On average</t>
@@ -63,6 +47,9 @@
   </si>
   <si>
     <t>Social protection and inclusion</t>
+  </si>
+  <si>
+    <t>Good but to monitor</t>
   </si>
 </sst>
 </file>
@@ -189,27 +176,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -230,18 +196,39 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -540,253 +527,254 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="10" width="20" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" customWidth="1"/>
+    <col min="2" max="2" width="30.84375" customWidth="1"/>
+    <col min="3" max="3" width="6.3046875" customWidth="1"/>
+    <col min="4" max="4" width="11.23046875" customWidth="1"/>
+    <col min="5" max="5" width="12.4609375" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" customWidth="1"/>
+    <col min="7" max="10" width="11.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="17"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="17"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="17"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="17"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="17"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="17"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="17"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="17"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="17"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -796,4 +784,327 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comment xmlns="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499" xsi:nil="true"/>
+    <Year xmlns="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e0757b53-df10-4b98-9811-094c4c3e23a8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100087E4EC354ADFB40AC5D4FC129E379BA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="930edc89c2fe6a9020868dfc8e617521">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499" xmlns:ns3="e0757b53-df10-4b98-9811-094c4c3e23a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97c81126709f1cede8de6921efd2d12f" ns2:_="" ns3:_="">
+    <xsd:import namespace="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499"/>
+    <xsd:import namespace="e0757b53-df10-4b98-9811-094c4c3e23a8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:Comment" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:Year" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="22b2fad6-9d2c-441c-a321-3f5f1e9bd928" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Comment" ma:index="24" nillable="true" ma:displayName="Comment" ma:format="Dropdown" ma:internalName="Comment">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Year" ma:index="26" nillable="true" ma:displayName="Year" ma:format="DateOnly" ma:internalName="Year">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e0757b53-df10-4b98-9811-094c4c3e23a8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e94bbc1f-4af1-4350-9187-1125370a984a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e0757b53-df10-4b98-9811-094c4c3e23a8">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A6E2E51-4E2A-4068-A373-A716E233E4A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDD38A8C-E056-4D4A-940A-6E8E69F81DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499"/>
+    <ds:schemaRef ds:uri="e0757b53-df10-4b98-9811-094c4c3e23a8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76396E8E-FF22-445D-9252-74B7D2DE1AF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499"/>
+    <ds:schemaRef ds:uri="e0757b53-df10-4b98-9811-094c4c3e23a8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>